--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_경전선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_경전선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1661C12E-A07A-4D9D-881C-58B82F6FD407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B51B1-351D-45FE-B2B0-EA4B68BAC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
+    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
   <si>
     <t>MSE</t>
   </si>
@@ -142,6 +143,81 @@
     <t>일평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+  </si>
+  <si>
+    <t>9월</t>
+  </si>
+  <si>
+    <t>10월</t>
+  </si>
+  <si>
+    <t>11월</t>
+  </si>
+  <si>
+    <t>12월</t>
+  </si>
+  <si>
+    <t>2024년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균오차 및 오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +228,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +256,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,13 +309,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -243,24 +331,42 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -7997,14 +8103,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC3130B-8927-4672-B491-575C7A4CA164}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.08203125" bestFit="1" customWidth="1"/>
@@ -8018,18 +8124,18 @@
       <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -8077,7 +8183,7 @@
       <c r="C3" s="3">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>45017</v>
       </c>
       <c r="E3" s="5">
@@ -8115,7 +8221,7 @@
       <c r="C4" s="3">
         <v>19</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>45047</v>
       </c>
       <c r="E4" s="5">
@@ -8153,7 +8259,7 @@
       <c r="C5" s="3">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>45078</v>
       </c>
       <c r="E5" s="5">
@@ -8191,7 +8297,7 @@
       <c r="C6" s="3">
         <v>17</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>45108</v>
       </c>
       <c r="E6" s="5">
@@ -8229,7 +8335,7 @@
       <c r="C7" s="3">
         <v>19</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>45139</v>
       </c>
       <c r="E7" s="5">
@@ -8267,7 +8373,7 @@
       <c r="C8" s="3">
         <v>16</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>45170</v>
       </c>
       <c r="E8" s="5">
@@ -8305,7 +8411,7 @@
       <c r="C9" s="3">
         <v>18</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>45200</v>
       </c>
       <c r="E9" s="5">
@@ -8343,7 +8449,7 @@
       <c r="C10" s="3">
         <v>18</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>45231</v>
       </c>
       <c r="E10" s="5">
@@ -8381,7 +8487,7 @@
       <c r="C11" s="3">
         <v>16</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>45261</v>
       </c>
       <c r="E11" s="5">
@@ -8419,7 +8525,7 @@
       <c r="C12" s="3">
         <v>19</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>45292</v>
       </c>
       <c r="E12" s="5">
@@ -8457,7 +8563,7 @@
       <c r="C13" s="3">
         <v>17</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>45323</v>
       </c>
       <c r="E13" s="5">
@@ -8484,24 +8590,24 @@
         <f>Forecasting_주중!D12</f>
         <v>351935.0625</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="L13" s="11" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7" t="str">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7" t="str">
+      <c r="O13" s="11"/>
+      <c r="P13" s="11" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
@@ -8513,7 +8619,7 @@
       <c r="C14" s="3">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>45352</v>
       </c>
       <c r="E14" s="5">
@@ -8540,7 +8646,7 @@
         <f>Forecasting_주중!D13</f>
         <v>250501.5625</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="10"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NHITS</v>
@@ -8573,7 +8679,7 @@
       <c r="C15" s="3">
         <v>18</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>45383</v>
       </c>
       <c r="E15" s="5">
@@ -8639,7 +8745,7 @@
       <c r="C16" s="3">
         <v>18</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>45413</v>
       </c>
       <c r="E16" s="5">
@@ -8705,7 +8811,7 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>45444</v>
       </c>
       <c r="E17" s="5">
@@ -8771,7 +8877,7 @@
       <c r="C18" s="3">
         <v>19</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>45474</v>
       </c>
       <c r="E18" s="5">
@@ -8837,7 +8943,7 @@
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>45505</v>
       </c>
       <c r="E19" s="5">
@@ -8903,7 +9009,7 @@
       <c r="C20" s="3">
         <v>17</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>45536</v>
       </c>
       <c r="E20" s="5">
@@ -8969,7 +9075,7 @@
       <c r="C21" s="3">
         <v>19</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>45566</v>
       </c>
       <c r="E21" s="5">
@@ -9035,7 +9141,7 @@
       <c r="C22" s="3">
         <v>16</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>45597</v>
       </c>
       <c r="E22" s="5">
@@ -9101,7 +9207,7 @@
       <c r="C23" s="3">
         <v>18</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>45627</v>
       </c>
       <c r="E23" s="5">
@@ -9167,7 +9273,7 @@
       <c r="C24" s="3">
         <v>18</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>45658</v>
       </c>
       <c r="E24" s="5">
@@ -9233,7 +9339,7 @@
       <c r="C25" s="3">
         <v>16</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <v>45689</v>
       </c>
       <c r="E25" s="5">
@@ -9299,7 +9405,7 @@
       <c r="C26" s="3">
         <v>17</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>45717</v>
       </c>
       <c r="E26" s="5">
@@ -9365,7 +9471,7 @@
       <c r="C27" s="3">
         <v>18</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>45748</v>
       </c>
       <c r="E27" s="5">
@@ -9431,7 +9537,7 @@
       <c r="C28" s="3">
         <v>17</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>45778</v>
       </c>
       <c r="E28" s="5">
@@ -9497,7 +9603,7 @@
       <c r="C29" s="3">
         <v>17</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>45809</v>
       </c>
       <c r="E29" s="5">
@@ -9563,7 +9669,7 @@
       <c r="C30" s="3">
         <v>19</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
         <v>45839</v>
       </c>
       <c r="E30" s="5">
@@ -9629,7 +9735,7 @@
       <c r="C31" s="3">
         <v>16</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
         <v>45870</v>
       </c>
       <c r="E31" s="5">
@@ -9695,7 +9801,7 @@
       <c r="C32" s="3">
         <v>18</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="6">
         <v>45901</v>
       </c>
       <c r="E32" s="5">
@@ -9761,7 +9867,7 @@
       <c r="C33" s="3">
         <v>18</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>45931</v>
       </c>
       <c r="E33" s="5">
@@ -9827,7 +9933,7 @@
       <c r="C34" s="3">
         <v>16</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="6">
         <v>45962</v>
       </c>
       <c r="E34" s="5">
@@ -9893,7 +9999,7 @@
       <c r="C35" s="3">
         <v>19</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
         <v>45992</v>
       </c>
       <c r="E35" s="5">
@@ -9964,4 +10070,812 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C567823-B67D-4930-B663-CCD6653178CF}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.4140625" customWidth="1"/>
+    <col min="11" max="11" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Forecasting_전체!C2</f>
+        <v>688648</v>
+      </c>
+      <c r="D3" s="5">
+        <f>Forecasting_전체!D2</f>
+        <v>673034.4375</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3-C3</f>
+        <v>-15613.5625</v>
+      </c>
+      <c r="F3" s="17">
+        <f>E3/C3</f>
+        <v>-2.2672776948455525E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>Forecasting_주말!C2</f>
+        <v>388460</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Forecasting_주말!D2</f>
+        <v>382247.9375</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3-G3</f>
+        <v>-6212.0625</v>
+      </c>
+      <c r="J3" s="17">
+        <f>I3/G3</f>
+        <v>-1.5991511352520207E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <f>Forecasting_주중!C2</f>
+        <v>300188</v>
+      </c>
+      <c r="L3" s="5">
+        <f>Forecasting_주중!D2</f>
+        <v>252706.1875</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3-K3</f>
+        <v>-47481.8125</v>
+      </c>
+      <c r="N3" s="17">
+        <f>M3/K3</f>
+        <v>-0.15817358621930258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5">
+        <f>Forecasting_전체!C3</f>
+        <v>716221</v>
+      </c>
+      <c r="D4" s="5">
+        <f>Forecasting_전체!D3</f>
+        <v>673034.5625</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
+        <v>-43186.4375</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
+        <v>-6.0297642068579391E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Forecasting_주말!C3</f>
+        <v>336614</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Forecasting_주말!D3</f>
+        <v>339251.3125</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
+        <v>2637.3125</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
+        <v>7.8348271313730261E-3</v>
+      </c>
+      <c r="K4" s="5">
+        <f>Forecasting_주중!C3</f>
+        <v>379607</v>
+      </c>
+      <c r="L4" s="5">
+        <f>Forecasting_주중!D3</f>
+        <v>353094</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
+        <v>-26513</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
+        <v>-6.9843285292420842E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <f>Forecasting_전체!C4</f>
+        <v>668339</v>
+      </c>
+      <c r="D5" s="5">
+        <f>Forecasting_전체!D4</f>
+        <v>673038.3125</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>4699.3125</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>7.0313306570467977E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <f>Forecasting_주말!C4</f>
+        <v>345414</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Forecasting_주말!D4</f>
+        <v>318974.1875</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="2"/>
+        <v>-26439.8125</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="3"/>
+        <v>-7.6545283341150044E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <f>Forecasting_주중!C4</f>
+        <v>322925</v>
+      </c>
+      <c r="L5" s="5">
+        <f>Forecasting_주중!D4</f>
+        <v>277421.59375</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>-45503.40625</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.14091013780289541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Forecasting_전체!C5</f>
+        <v>651454</v>
+      </c>
+      <c r="D6" s="5">
+        <f>Forecasting_전체!D5</f>
+        <v>673039.1875</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>21585.1875</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>3.3133862866756514E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Forecasting_주말!C5</f>
+        <v>361238</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Forecasting_주말!D5</f>
+        <v>314500.25</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="2"/>
+        <v>-46737.75</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.12938215248672622</v>
+      </c>
+      <c r="K6" s="5">
+        <f>Forecasting_주중!C5</f>
+        <v>290216</v>
+      </c>
+      <c r="L6" s="5">
+        <f>Forecasting_주중!D5</f>
+        <v>292639.4375</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>2423.4375</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="5"/>
+        <v>8.3504613804890153E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Forecasting_전체!C6</f>
+        <v>669451</v>
+      </c>
+      <c r="D7" s="5">
+        <f>Forecasting_전체!D6</f>
+        <v>673035.25</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>3584.25</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>5.3540139606931651E-3</v>
+      </c>
+      <c r="G7" s="5">
+        <f>Forecasting_주말!C6</f>
+        <v>316512</v>
+      </c>
+      <c r="H7" s="5">
+        <f>Forecasting_주말!D6</f>
+        <v>254466</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>-62046</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.19603048225659692</v>
+      </c>
+      <c r="K7" s="5">
+        <f>Forecasting_주중!C6</f>
+        <v>352939</v>
+      </c>
+      <c r="L7" s="5">
+        <f>Forecasting_주중!D6</f>
+        <v>330553.125</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>-22385.875</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="5"/>
+        <v>-6.3427036966727968E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Forecasting_전체!C7</f>
+        <v>648086</v>
+      </c>
+      <c r="D8" s="5">
+        <f>Forecasting_전체!D7</f>
+        <v>673041.125</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>24955.125</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>3.8505885021432339E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Forecasting_주말!C7</f>
+        <v>345989</v>
+      </c>
+      <c r="H8" s="5">
+        <f>Forecasting_주말!D7</f>
+        <v>358780.9375</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
+        <v>12791.9375</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="3"/>
+        <v>3.6972093043420452E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <f>Forecasting_주중!C7</f>
+        <v>302097</v>
+      </c>
+      <c r="L8" s="5">
+        <f>Forecasting_주중!D7</f>
+        <v>293094.75</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="4"/>
+        <v>-9002.25</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.9799203567066206E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Forecasting_전체!C8</f>
+        <v>716861</v>
+      </c>
+      <c r="D9" s="5">
+        <f>Forecasting_전체!D8</f>
+        <v>673040</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>-43821</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
+        <v>-6.1129005483629324E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f>Forecasting_주말!C8</f>
+        <v>361270</v>
+      </c>
+      <c r="H9" s="5">
+        <f>Forecasting_주말!D8</f>
+        <v>389902.34375</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>28632.34375</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="3"/>
+        <v>7.9254695241785925E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f>Forecasting_주중!C8</f>
+        <v>355591</v>
+      </c>
+      <c r="L9" s="5">
+        <f>Forecasting_주중!D8</f>
+        <v>336115.34375</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="4"/>
+        <v>-19475.65625</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="5"/>
+        <v>-5.4769823336361156E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Forecasting_전체!C9</f>
+        <v>688137</v>
+      </c>
+      <c r="D10" s="5">
+        <f>Forecasting_전체!D9</f>
+        <v>673045.4375</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>-15091.5625</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
+        <v>-2.1931043527669634E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <f>Forecasting_주말!C9</f>
+        <v>351180</v>
+      </c>
+      <c r="H10" s="5">
+        <f>Forecasting_주말!D9</f>
+        <v>355369.21875</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>4189.21875</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1928978728856997E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <f>Forecasting_주중!C9</f>
+        <v>336957</v>
+      </c>
+      <c r="L10" s="5">
+        <f>Forecasting_주중!D9</f>
+        <v>315177.875</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="4"/>
+        <v>-21779.125</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="5"/>
+        <v>-6.4634730841027194E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Forecasting_전체!C10</f>
+        <v>714043</v>
+      </c>
+      <c r="D11" s="5">
+        <f>Forecasting_전체!D10</f>
+        <v>673046.9375</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>-40996.0625</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="1"/>
+        <v>-5.7413996776104523E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f>Forecasting_주말!C10</f>
+        <v>407266</v>
+      </c>
+      <c r="H11" s="5">
+        <f>Forecasting_주말!D10</f>
+        <v>389002.4375</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>-18263.5625</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.4844309370288708E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <f>Forecasting_주중!C10</f>
+        <v>306777</v>
+      </c>
+      <c r="L11" s="5">
+        <f>Forecasting_주중!D10</f>
+        <v>305182.4375</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
+        <v>-1594.5625</v>
+      </c>
+      <c r="N11" s="17">
+        <f t="shared" si="5"/>
+        <v>-5.1977902515508009E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Forecasting_전체!C11</f>
+        <v>644503</v>
+      </c>
+      <c r="D12" s="5">
+        <f>Forecasting_전체!D11</f>
+        <v>673040.875</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>28537.875</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="1"/>
+        <v>4.4278886211545951E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f>Forecasting_주말!C11</f>
+        <v>304207</v>
+      </c>
+      <c r="H12" s="5">
+        <f>Forecasting_주말!D11</f>
+        <v>311651.3125</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>7444.3125</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="3"/>
+        <v>2.4471207105687905E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f>Forecasting_주중!C11</f>
+        <v>340296</v>
+      </c>
+      <c r="L12" s="5">
+        <f>Forecasting_주중!D11</f>
+        <v>317183.875</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="4"/>
+        <v>-23112.125</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" si="5"/>
+        <v>-6.791770987610786E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5">
+        <f>Forecasting_전체!C12</f>
+        <v>679183</v>
+      </c>
+      <c r="D13" s="5">
+        <f>Forecasting_전체!D12</f>
+        <v>673036.75</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>-6146.25</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="1"/>
+        <v>-9.0494756199728209E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <f>Forecasting_주말!C12</f>
+        <v>316724</v>
+      </c>
+      <c r="H13" s="5">
+        <f>Forecasting_주말!D12</f>
+        <v>306422.46875</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>-10301.53125</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="3"/>
+        <v>-3.2525262531415362E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <f>Forecasting_주중!C12</f>
+        <v>362459</v>
+      </c>
+      <c r="L13" s="5">
+        <f>Forecasting_주중!D12</f>
+        <v>351935.0625</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="4"/>
+        <v>-10523.9375</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.9034835664171671E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5">
+        <f>Forecasting_전체!C13</f>
+        <v>701690</v>
+      </c>
+      <c r="D14" s="5">
+        <f>Forecasting_전체!D13</f>
+        <v>673046.125</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>-28643.875</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="1"/>
+        <v>-4.0821267226268013E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <f>Forecasting_주말!C13</f>
+        <v>412828</v>
+      </c>
+      <c r="H14" s="5">
+        <f>Forecasting_주말!D13</f>
+        <v>377245.03125</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>-35582.96875</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="3"/>
+        <v>-8.6193205766081762E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <f>Forecasting_주중!C13</f>
+        <v>288862</v>
+      </c>
+      <c r="L14" s="5">
+        <f>Forecasting_주중!D13</f>
+        <v>250501.5625</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="4"/>
+        <v>-38360.4375</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.13279849028255708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="18">
+        <f>AVERAGE(C3:C14)</f>
+        <v>682218</v>
+      </c>
+      <c r="D15" s="18">
+        <f>AVERAGE(D3:D14)</f>
+        <v>673039.91666666663</v>
+      </c>
+      <c r="E15" s="18">
+        <f>AVERAGE(E3:E14)</f>
+        <v>-9178.0833333333339</v>
+      </c>
+      <c r="F15" s="17">
+        <f>AVERAGE(F3:F14)</f>
+        <v>-1.2084269077767039E-2</v>
+      </c>
+      <c r="G15" s="18">
+        <f>AVERAGE(G3:G14)</f>
+        <v>353975.16666666669</v>
+      </c>
+      <c r="H15" s="18">
+        <f>AVERAGE(H3:H14)</f>
+        <v>341484.453125</v>
+      </c>
+      <c r="I15" s="18">
+        <f>AVERAGE(I3:I14)</f>
+        <v>-12490.713541666666</v>
+      </c>
+      <c r="J15" s="17">
+        <f>AVERAGE(J3:J14)</f>
+        <v>-3.5087533821137905E-2</v>
+      </c>
+      <c r="K15" s="18">
+        <f>AVERAGE(K3:K14)</f>
+        <v>328242.83333333331</v>
+      </c>
+      <c r="L15" s="18">
+        <f>AVERAGE(L3:L14)</f>
+        <v>306300.4375</v>
+      </c>
+      <c r="M15" s="18">
+        <f>AVERAGE(M3:M14)</f>
+        <v>-21942.395833333332</v>
+      </c>
+      <c r="N15" s="17">
+        <f>AVERAGE(N3:N14)</f>
+        <v>-6.7346347393308317E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_경전선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_경전선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B51B1-351D-45FE-B2B0-EA4B68BAC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F6186-AB4B-454F-96C8-57499095D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
-    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
   <si>
     <t>MSE</t>
   </si>
@@ -143,81 +142,6 @@
     <t>일평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월</t>
-  </si>
-  <si>
-    <t>9월</t>
-  </si>
-  <si>
-    <t>10월</t>
-  </si>
-  <si>
-    <t>11월</t>
-  </si>
-  <si>
-    <t>12월</t>
-  </si>
-  <si>
-    <t>2024년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균오차 및 오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -228,7 +152,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,15 +180,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -309,16 +224,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -347,26 +259,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+  <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1434,13 +1328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1383,7 @@
         <v>3.581987394409443E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1409,7 @@
         <v>3.5891304596143717E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1435,7 @@
         <v>5.6443723253972157E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1461,7 @@
         <v>5.7339783890243343E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1487,7 @@
         <v>8.4527624256235362E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1513,7 @@
         <v>8.1044927959248919E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1645,7 +1539,7 @@
         <v>9.0855912613603845E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1671,7 +1565,7 @@
         <v>9.4868691169940789E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +1591,7 @@
         <v>0.1299583109116795</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1617,7 @@
         <v>0.32599218584003892</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1749,7 +1643,7 @@
         <v>0.32168719124053891</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1775,7 +1669,7 @@
         <v>0.33020461136829649</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,7 +1695,7 @@
         <v>0.32650445257257849</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1842,9 +1736,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1897,7 +1791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -1950,7 +1844,7 @@
         <v>349342.3125</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -2003,7 +1897,7 @@
         <v>400307.03125</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -2056,7 +1950,7 @@
         <v>173758.484375</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -2109,7 +2003,7 @@
         <v>-615874.5625</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -2162,7 +2056,7 @@
         <v>-989887.125</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -2215,7 +2109,7 @@
         <v>16570.11328125</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -2268,7 +2162,7 @@
         <v>264992.59375</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -2321,7 +2215,7 @@
         <v>1044806.25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -2374,7 +2268,7 @@
         <v>327877.53125</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -2427,7 +2321,7 @@
         <v>17134.09375</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -2480,7 +2374,7 @@
         <v>451221.0625</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -2533,7 +2427,7 @@
         <v>284580.71875</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -2586,7 +2480,7 @@
         <v>61899.82421875</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -2639,7 +2533,7 @@
         <v>-325928.28125</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -2692,7 +2586,7 @@
         <v>-856655.6875</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -2745,7 +2639,7 @@
         <v>93701.2578125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -2798,7 +2692,7 @@
         <v>265791.28125</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -2851,7 +2745,7 @@
         <v>155511.078125</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -2904,7 +2798,7 @@
         <v>443421.8125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -2957,7 +2851,7 @@
         <v>457004.65625</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -3010,7 +2904,7 @@
         <v>-50830.8828125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -3063,7 +2957,7 @@
         <v>130259.0625</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -3116,7 +3010,7 @@
         <v>391151.15625</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -3169,7 +3063,7 @@
         <v>-792310.0625</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -3222,7 +3116,7 @@
         <v>4206081</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -3275,7 +3169,7 @@
         <v>4046515.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -3328,7 +3222,7 @@
         <v>2453217.5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -3381,7 +3275,7 @@
         <v>6565384</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -3434,7 +3328,7 @@
         <v>10963153</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -3487,7 +3381,7 @@
         <v>16903436</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -3540,7 +3434,7 @@
         <v>31236356</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -3593,7 +3487,7 @@
         <v>30936232</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -3661,9 +3555,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3686,7 +3580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3712,7 +3606,7 @@
         <v>4.090820120685458E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3738,7 +3632,7 @@
         <v>6.7153553019405843E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3764,7 +3658,7 @@
         <v>6.7477273649788672E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3790,7 +3684,7 @@
         <v>6.7635326358420358E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3816,7 +3710,7 @@
         <v>6.0577037172416692E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3736,7 @@
         <v>5.7623686681985732E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3868,7 +3762,7 @@
         <v>7.6749785105292456E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3894,7 +3788,7 @@
         <v>9.3753339684909787E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -3920,7 +3814,7 @@
         <v>0.1302430393721489</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3946,7 +3840,7 @@
         <v>0.30514166210482441</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -3972,7 +3866,7 @@
         <v>0.30863417700071633</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -3998,7 +3892,7 @@
         <v>0.31480172527299433</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -4024,7 +3918,7 @@
         <v>0.3132016207422611</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -4065,9 +3959,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4120,7 +4014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -4173,7 +4067,7 @@
         <v>-270081.34375</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -4226,7 +4120,7 @@
         <v>173529.703125</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -4279,7 +4173,7 @@
         <v>-646772.25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -4332,7 +4226,7 @@
         <v>270586.28125</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -4385,7 +4279,7 @@
         <v>-631557.6875</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -4438,7 +4332,7 @@
         <v>-203627.75</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -4491,7 +4385,7 @@
         <v>-246668.78125</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -4544,7 +4438,7 @@
         <v>-7055.32958984375</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -4597,7 +4491,7 @@
         <v>-685352.0625</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -4650,7 +4544,7 @@
         <v>690342.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -4703,7 +4597,7 @@
         <v>33842.43359375</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -4756,7 +4650,7 @@
         <v>-71782.2734375</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -4809,7 +4703,7 @@
         <v>143464.609375</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -4862,7 +4756,7 @@
         <v>-430091.3125</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -4915,7 +4809,7 @@
         <v>816710.625</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -4968,7 +4862,7 @@
         <v>1697428.375</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -5021,7 +4915,7 @@
         <v>183377.4375</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -5074,7 +4968,7 @@
         <v>466797.40625</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -5127,7 +5021,7 @@
         <v>-298348.9375</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -5180,7 +5074,7 @@
         <v>532886.0625</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -5233,7 +5127,7 @@
         <v>280410</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -5286,7 +5180,7 @@
         <v>75181.8984375</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -5339,7 +5233,7 @@
         <v>1053394.75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -5392,7 +5286,7 @@
         <v>-727723</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -5445,7 +5339,7 @@
         <v>-151481.203125</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -5498,7 +5392,7 @@
         <v>731494.625</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -5551,7 +5445,7 @@
         <v>576699.8125</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -5604,7 +5498,7 @@
         <v>361436.90625</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -5657,7 +5551,7 @@
         <v>1927681</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -5710,7 +5604,7 @@
         <v>894860.4375</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -5763,7 +5657,7 @@
         <v>11344412</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -5816,7 +5710,7 @@
         <v>10065721</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -5884,9 +5778,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5909,7 +5803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5935,7 +5829,7 @@
         <v>6.4030883903877581E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5961,7 +5855,7 @@
         <v>7.4352563861589449E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5987,7 +5881,7 @@
         <v>8.4476974167310259E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -6013,7 +5907,7 @@
         <v>8.1316144592999212E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -6039,7 +5933,7 @@
         <v>7.4371848764806875E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -6065,7 +5959,7 @@
         <v>7.9088609134503593E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6091,7 +5985,7 @@
         <v>0.1047933261703551</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6117,7 +6011,7 @@
         <v>0.1120805641231485</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6143,7 +6037,7 @@
         <v>0.16924813412221279</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -6169,7 +6063,7 @@
         <v>0.28075680888099219</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -6195,7 +6089,7 @@
         <v>0.2819671818490973</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -6221,7 +6115,7 @@
         <v>0.29263462574094051</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -6247,7 +6141,7 @@
         <v>0.29260431267438519</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -6288,9 +6182,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6343,7 +6237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -6396,7 +6290,7 @@
         <v>412396.5625</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -6449,7 +6343,7 @@
         <v>64992.640625</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -6502,7 +6396,7 @@
         <v>-238875.71875</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -6555,7 +6449,7 @@
         <v>-452961.1875</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -6608,7 +6502,7 @@
         <v>-1113594.25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -6661,7 +6555,7 @@
         <v>955212.1875</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -6714,7 +6608,7 @@
         <v>15917.4521484375</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -6767,7 +6661,7 @@
         <v>1321618.25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -6820,7 +6714,7 @@
         <v>838110.375</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -6873,7 +6767,7 @@
         <v>418657.4375</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -6926,7 +6820,7 @@
         <v>705231.9375</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -6979,7 +6873,7 @@
         <v>-310324.375</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -7032,7 +6926,7 @@
         <v>61156.35546875</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -7085,7 +6979,7 @@
         <v>-510981.6875</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -7138,7 +7032,7 @@
         <v>-550108.1875</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -7191,7 +7085,7 @@
         <v>1727767.25</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -7244,7 +7138,7 @@
         <v>1844419</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -7297,7 +7191,7 @@
         <v>1150952.875</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -7350,7 +7244,7 @@
         <v>1850097.75</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -7403,7 +7297,7 @@
         <v>2452169.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -7456,7 +7350,7 @@
         <v>1491350</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -7509,7 +7403,7 @@
         <v>776123.3125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -7562,7 +7456,7 @@
         <v>678377.9375</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -7615,7 +7509,7 @@
         <v>3894440</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -7668,7 +7562,7 @@
         <v>5143146</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -7721,7 +7615,7 @@
         <v>5745795</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -7774,7 +7668,7 @@
         <v>3223385.75</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -7827,7 +7721,7 @@
         <v>4311263.5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -7880,7 +7774,7 @@
         <v>4384710</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -7933,7 +7827,7 @@
         <v>6206156</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -7986,7 +7880,7 @@
         <v>10838212</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -8039,7 +7933,7 @@
         <v>16775333</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -8107,20 +8001,20 @@
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
@@ -8137,7 +8031,7 @@
       </c>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -8173,7 +8067,7 @@
         <v>DilatedRNN</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -8211,7 +8105,7 @@
         <v>252706.1875</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>31</v>
       </c>
@@ -8249,7 +8143,7 @@
         <v>353094</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -8287,7 +8181,7 @@
         <v>277421.59375</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>31</v>
       </c>
@@ -8325,7 +8219,7 @@
         <v>292639.4375</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>31</v>
       </c>
@@ -8363,7 +8257,7 @@
         <v>330553.125</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -8401,7 +8295,7 @@
         <v>293094.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -8439,7 +8333,7 @@
         <v>336115.34375</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -8477,7 +8371,7 @@
         <v>315177.875</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -8515,7 +8409,7 @@
         <v>305182.4375</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>31</v>
       </c>
@@ -8553,7 +8447,7 @@
         <v>317183.875</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>29</v>
       </c>
@@ -8609,7 +8503,7 @@
       </c>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>31</v>
       </c>
@@ -8669,7 +8563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>30</v>
       </c>
@@ -8735,7 +8629,7 @@
         <v>16619.486111111109</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>31</v>
       </c>
@@ -8801,7 +8695,7 @@
         <v>17708.003472222223</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -8867,7 +8761,7 @@
         <v>16202.1904296875</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -8933,7 +8827,7 @@
         <v>13992.037828947368</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>31</v>
       </c>
@@ -8999,7 +8893,7 @@
         <v>13771.652573529413</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -9065,7 +8959,7 @@
         <v>15876.516544117647</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -9131,7 +9025,7 @@
         <v>12782.630756578947</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -9197,7 +9091,7 @@
         <v>12655.4580078125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -9263,7 +9157,7 @@
         <v>14427.705729166666</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>31</v>
       </c>
@@ -9329,7 +9223,7 @@
         <v>16573.864583333332</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -9395,7 +9289,7 @@
         <v>11172.974609375</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -9461,7 +9355,7 @@
         <v>11133.880514705883</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -9527,7 +9421,7 @@
         <v>13290.946180555555</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>31</v>
       </c>
@@ -9593,7 +9487,7 @@
         <v>12902.604779411764</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -9659,7 +9553,7 @@
         <v>9346.6268382352937</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -9725,7 +9619,7 @@
         <v>11945.674342105263</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -9791,7 +9685,7 @@
         <v>12922.5185546875</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -9857,7 +9751,7 @@
         <v>12878.404513888889</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -9923,7 +9817,7 @@
         <v>11360.348958333334</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -9989,7 +9883,7 @@
         <v>13600.1650390625</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -10070,812 +9964,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C567823-B67D-4930-B663-CCD6653178CF}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.4140625" customWidth="1"/>
-    <col min="11" max="11" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.4140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5">
-        <f>Forecasting_전체!C2</f>
-        <v>688648</v>
-      </c>
-      <c r="D3" s="5">
-        <f>Forecasting_전체!D2</f>
-        <v>673034.4375</v>
-      </c>
-      <c r="E3" s="5">
-        <f>D3-C3</f>
-        <v>-15613.5625</v>
-      </c>
-      <c r="F3" s="17">
-        <f>E3/C3</f>
-        <v>-2.2672776948455525E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>Forecasting_주말!C2</f>
-        <v>388460</v>
-      </c>
-      <c r="H3" s="5">
-        <f>Forecasting_주말!D2</f>
-        <v>382247.9375</v>
-      </c>
-      <c r="I3" s="5">
-        <f>H3-G3</f>
-        <v>-6212.0625</v>
-      </c>
-      <c r="J3" s="17">
-        <f>I3/G3</f>
-        <v>-1.5991511352520207E-2</v>
-      </c>
-      <c r="K3" s="5">
-        <f>Forecasting_주중!C2</f>
-        <v>300188</v>
-      </c>
-      <c r="L3" s="5">
-        <f>Forecasting_주중!D2</f>
-        <v>252706.1875</v>
-      </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
-        <v>-47481.8125</v>
-      </c>
-      <c r="N3" s="17">
-        <f>M3/K3</f>
-        <v>-0.15817358621930258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5">
-        <f>Forecasting_전체!C3</f>
-        <v>716221</v>
-      </c>
-      <c r="D4" s="5">
-        <f>Forecasting_전체!D3</f>
-        <v>673034.5625</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
-        <v>-43186.4375</v>
-      </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
-        <v>-6.0297642068579391E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <f>Forecasting_주말!C3</f>
-        <v>336614</v>
-      </c>
-      <c r="H4" s="5">
-        <f>Forecasting_주말!D3</f>
-        <v>339251.3125</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
-        <v>2637.3125</v>
-      </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
-        <v>7.8348271313730261E-3</v>
-      </c>
-      <c r="K4" s="5">
-        <f>Forecasting_주중!C3</f>
-        <v>379607</v>
-      </c>
-      <c r="L4" s="5">
-        <f>Forecasting_주중!D3</f>
-        <v>353094</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
-        <v>-26513</v>
-      </c>
-      <c r="N4" s="17">
-        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
-        <v>-6.9843285292420842E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5">
-        <f>Forecasting_전체!C4</f>
-        <v>668339</v>
-      </c>
-      <c r="D5" s="5">
-        <f>Forecasting_전체!D4</f>
-        <v>673038.3125</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>4699.3125</v>
-      </c>
-      <c r="F5" s="17">
-        <f t="shared" si="1"/>
-        <v>7.0313306570467977E-3</v>
-      </c>
-      <c r="G5" s="5">
-        <f>Forecasting_주말!C4</f>
-        <v>345414</v>
-      </c>
-      <c r="H5" s="5">
-        <f>Forecasting_주말!D4</f>
-        <v>318974.1875</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="2"/>
-        <v>-26439.8125</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="3"/>
-        <v>-7.6545283341150044E-2</v>
-      </c>
-      <c r="K5" s="5">
-        <f>Forecasting_주중!C4</f>
-        <v>322925</v>
-      </c>
-      <c r="L5" s="5">
-        <f>Forecasting_주중!D4</f>
-        <v>277421.59375</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="4"/>
-        <v>-45503.40625</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.14091013780289541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5">
-        <f>Forecasting_전체!C5</f>
-        <v>651454</v>
-      </c>
-      <c r="D6" s="5">
-        <f>Forecasting_전체!D5</f>
-        <v>673039.1875</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>21585.1875</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" si="1"/>
-        <v>3.3133862866756514E-2</v>
-      </c>
-      <c r="G6" s="5">
-        <f>Forecasting_주말!C5</f>
-        <v>361238</v>
-      </c>
-      <c r="H6" s="5">
-        <f>Forecasting_주말!D5</f>
-        <v>314500.25</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>-46737.75</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.12938215248672622</v>
-      </c>
-      <c r="K6" s="5">
-        <f>Forecasting_주중!C5</f>
-        <v>290216</v>
-      </c>
-      <c r="L6" s="5">
-        <f>Forecasting_주중!D5</f>
-        <v>292639.4375</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="4"/>
-        <v>2423.4375</v>
-      </c>
-      <c r="N6" s="17">
-        <f t="shared" si="5"/>
-        <v>8.3504613804890153E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5">
-        <f>Forecasting_전체!C6</f>
-        <v>669451</v>
-      </c>
-      <c r="D7" s="5">
-        <f>Forecasting_전체!D6</f>
-        <v>673035.25</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>3584.25</v>
-      </c>
-      <c r="F7" s="17">
-        <f t="shared" si="1"/>
-        <v>5.3540139606931651E-3</v>
-      </c>
-      <c r="G7" s="5">
-        <f>Forecasting_주말!C6</f>
-        <v>316512</v>
-      </c>
-      <c r="H7" s="5">
-        <f>Forecasting_주말!D6</f>
-        <v>254466</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>-62046</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.19603048225659692</v>
-      </c>
-      <c r="K7" s="5">
-        <f>Forecasting_주중!C6</f>
-        <v>352939</v>
-      </c>
-      <c r="L7" s="5">
-        <f>Forecasting_주중!D6</f>
-        <v>330553.125</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="4"/>
-        <v>-22385.875</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="shared" si="5"/>
-        <v>-6.3427036966727968E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5">
-        <f>Forecasting_전체!C7</f>
-        <v>648086</v>
-      </c>
-      <c r="D8" s="5">
-        <f>Forecasting_전체!D7</f>
-        <v>673041.125</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>24955.125</v>
-      </c>
-      <c r="F8" s="17">
-        <f t="shared" si="1"/>
-        <v>3.8505885021432339E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <f>Forecasting_주말!C7</f>
-        <v>345989</v>
-      </c>
-      <c r="H8" s="5">
-        <f>Forecasting_주말!D7</f>
-        <v>358780.9375</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="2"/>
-        <v>12791.9375</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="3"/>
-        <v>3.6972093043420452E-2</v>
-      </c>
-      <c r="K8" s="5">
-        <f>Forecasting_주중!C7</f>
-        <v>302097</v>
-      </c>
-      <c r="L8" s="5">
-        <f>Forecasting_주중!D7</f>
-        <v>293094.75</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="4"/>
-        <v>-9002.25</v>
-      </c>
-      <c r="N8" s="17">
-        <f t="shared" si="5"/>
-        <v>-2.9799203567066206E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5">
-        <f>Forecasting_전체!C8</f>
-        <v>716861</v>
-      </c>
-      <c r="D9" s="5">
-        <f>Forecasting_전체!D8</f>
-        <v>673040</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>-43821</v>
-      </c>
-      <c r="F9" s="17">
-        <f t="shared" si="1"/>
-        <v>-6.1129005483629324E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <f>Forecasting_주말!C8</f>
-        <v>361270</v>
-      </c>
-      <c r="H9" s="5">
-        <f>Forecasting_주말!D8</f>
-        <v>389902.34375</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="2"/>
-        <v>28632.34375</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="3"/>
-        <v>7.9254695241785925E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <f>Forecasting_주중!C8</f>
-        <v>355591</v>
-      </c>
-      <c r="L9" s="5">
-        <f>Forecasting_주중!D8</f>
-        <v>336115.34375</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="4"/>
-        <v>-19475.65625</v>
-      </c>
-      <c r="N9" s="17">
-        <f t="shared" si="5"/>
-        <v>-5.4769823336361156E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="5">
-        <f>Forecasting_전체!C9</f>
-        <v>688137</v>
-      </c>
-      <c r="D10" s="5">
-        <f>Forecasting_전체!D9</f>
-        <v>673045.4375</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>-15091.5625</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" si="1"/>
-        <v>-2.1931043527669634E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <f>Forecasting_주말!C9</f>
-        <v>351180</v>
-      </c>
-      <c r="H10" s="5">
-        <f>Forecasting_주말!D9</f>
-        <v>355369.21875</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="2"/>
-        <v>4189.21875</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="3"/>
-        <v>1.1928978728856997E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <f>Forecasting_주중!C9</f>
-        <v>336957</v>
-      </c>
-      <c r="L10" s="5">
-        <f>Forecasting_주중!D9</f>
-        <v>315177.875</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="4"/>
-        <v>-21779.125</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="shared" si="5"/>
-        <v>-6.4634730841027194E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5">
-        <f>Forecasting_전체!C10</f>
-        <v>714043</v>
-      </c>
-      <c r="D11" s="5">
-        <f>Forecasting_전체!D10</f>
-        <v>673046.9375</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>-40996.0625</v>
-      </c>
-      <c r="F11" s="17">
-        <f t="shared" si="1"/>
-        <v>-5.7413996776104523E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <f>Forecasting_주말!C10</f>
-        <v>407266</v>
-      </c>
-      <c r="H11" s="5">
-        <f>Forecasting_주말!D10</f>
-        <v>389002.4375</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>-18263.5625</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="3"/>
-        <v>-4.4844309370288708E-2</v>
-      </c>
-      <c r="K11" s="5">
-        <f>Forecasting_주중!C10</f>
-        <v>306777</v>
-      </c>
-      <c r="L11" s="5">
-        <f>Forecasting_주중!D10</f>
-        <v>305182.4375</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="4"/>
-        <v>-1594.5625</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="shared" si="5"/>
-        <v>-5.1977902515508009E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5">
-        <f>Forecasting_전체!C11</f>
-        <v>644503</v>
-      </c>
-      <c r="D12" s="5">
-        <f>Forecasting_전체!D11</f>
-        <v>673040.875</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>28537.875</v>
-      </c>
-      <c r="F12" s="17">
-        <f t="shared" si="1"/>
-        <v>4.4278886211545951E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <f>Forecasting_주말!C11</f>
-        <v>304207</v>
-      </c>
-      <c r="H12" s="5">
-        <f>Forecasting_주말!D11</f>
-        <v>311651.3125</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>7444.3125</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="3"/>
-        <v>2.4471207105687905E-2</v>
-      </c>
-      <c r="K12" s="5">
-        <f>Forecasting_주중!C11</f>
-        <v>340296</v>
-      </c>
-      <c r="L12" s="5">
-        <f>Forecasting_주중!D11</f>
-        <v>317183.875</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="4"/>
-        <v>-23112.125</v>
-      </c>
-      <c r="N12" s="17">
-        <f t="shared" si="5"/>
-        <v>-6.791770987610786E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5">
-        <f>Forecasting_전체!C12</f>
-        <v>679183</v>
-      </c>
-      <c r="D13" s="5">
-        <f>Forecasting_전체!D12</f>
-        <v>673036.75</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>-6146.25</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="1"/>
-        <v>-9.0494756199728209E-3</v>
-      </c>
-      <c r="G13" s="5">
-        <f>Forecasting_주말!C12</f>
-        <v>316724</v>
-      </c>
-      <c r="H13" s="5">
-        <f>Forecasting_주말!D12</f>
-        <v>306422.46875</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>-10301.53125</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="3"/>
-        <v>-3.2525262531415362E-2</v>
-      </c>
-      <c r="K13" s="5">
-        <f>Forecasting_주중!C12</f>
-        <v>362459</v>
-      </c>
-      <c r="L13" s="5">
-        <f>Forecasting_주중!D12</f>
-        <v>351935.0625</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="4"/>
-        <v>-10523.9375</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="5"/>
-        <v>-2.9034835664171671E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5">
-        <f>Forecasting_전체!C13</f>
-        <v>701690</v>
-      </c>
-      <c r="D14" s="5">
-        <f>Forecasting_전체!D13</f>
-        <v>673046.125</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>-28643.875</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="1"/>
-        <v>-4.0821267226268013E-2</v>
-      </c>
-      <c r="G14" s="5">
-        <f>Forecasting_주말!C13</f>
-        <v>412828</v>
-      </c>
-      <c r="H14" s="5">
-        <f>Forecasting_주말!D13</f>
-        <v>377245.03125</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>-35582.96875</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="3"/>
-        <v>-8.6193205766081762E-2</v>
-      </c>
-      <c r="K14" s="5">
-        <f>Forecasting_주중!C13</f>
-        <v>288862</v>
-      </c>
-      <c r="L14" s="5">
-        <f>Forecasting_주중!D13</f>
-        <v>250501.5625</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="4"/>
-        <v>-38360.4375</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.13279849028255708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
-        <f>AVERAGE(C3:C14)</f>
-        <v>682218</v>
-      </c>
-      <c r="D15" s="18">
-        <f>AVERAGE(D3:D14)</f>
-        <v>673039.91666666663</v>
-      </c>
-      <c r="E15" s="18">
-        <f>AVERAGE(E3:E14)</f>
-        <v>-9178.0833333333339</v>
-      </c>
-      <c r="F15" s="17">
-        <f>AVERAGE(F3:F14)</f>
-        <v>-1.2084269077767039E-2</v>
-      </c>
-      <c r="G15" s="18">
-        <f>AVERAGE(G3:G14)</f>
-        <v>353975.16666666669</v>
-      </c>
-      <c r="H15" s="18">
-        <f>AVERAGE(H3:H14)</f>
-        <v>341484.453125</v>
-      </c>
-      <c r="I15" s="18">
-        <f>AVERAGE(I3:I14)</f>
-        <v>-12490.713541666666</v>
-      </c>
-      <c r="J15" s="17">
-        <f>AVERAGE(J3:J14)</f>
-        <v>-3.5087533821137905E-2</v>
-      </c>
-      <c r="K15" s="18">
-        <f>AVERAGE(K3:K14)</f>
-        <v>328242.83333333331</v>
-      </c>
-      <c r="L15" s="18">
-        <f>AVERAGE(L3:L14)</f>
-        <v>306300.4375</v>
-      </c>
-      <c r="M15" s="18">
-        <f>AVERAGE(M3:M14)</f>
-        <v>-21942.395833333332</v>
-      </c>
-      <c r="N15" s="17">
-        <f>AVERAGE(N3:N14)</f>
-        <v>-6.7346347393308317E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>